--- a/data/Commodity_blocks.xlsx
+++ b/data/Commodity_blocks.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigve Borgmo\Master\dynamic-factor\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{223DB5FE-8801-4CC8-AF66-CDB596B18EB1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA1AEAB-BA48-481C-ABFC-8786E2FAA9D3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{CF11293B-F533-46E1-9466-3CFDC8EA6869}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{CF11293B-F533-46E1-9466-3CFDC8EA6869}"/>
   </bookViews>
   <sheets>
     <sheet name="Commodity" sheetId="1" r:id="rId1"/>
-    <sheet name="Comm2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Alt" sheetId="3" r:id="rId3"/>
+    <sheet name="Comm2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="97">
   <si>
     <t>Silver</t>
   </si>
@@ -229,16 +231,94 @@
     <t>Beverages</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Nutrients</t>
-  </si>
-  <si>
     <t>Global</t>
   </si>
   <si>
     <t>Crude oil, Brent</t>
+  </si>
+  <si>
+    <t>Coal, Colombian</t>
+  </si>
+  <si>
+    <t>Tea, Colombo</t>
+  </si>
+  <si>
+    <t>Tea, Kolkata</t>
+  </si>
+  <si>
+    <t>Tea, Mombasa</t>
+  </si>
+  <si>
+    <t>Palm kernel oil</t>
+  </si>
+  <si>
+    <t>Soybean oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice, Thai 5% </t>
+  </si>
+  <si>
+    <t>Rice, Viet Namese 5%</t>
+  </si>
+  <si>
+    <t>Wheat, US HRW</t>
+  </si>
+  <si>
+    <t>Banana, Europe</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Atlantic Salmon</t>
+  </si>
+  <si>
+    <t>Sugar, EU</t>
+  </si>
+  <si>
+    <t>Sugar, US</t>
+  </si>
+  <si>
+    <t>Tobacco, US import u.v.</t>
+  </si>
+  <si>
+    <t>Logs, Cameroon</t>
+  </si>
+  <si>
+    <t>Logs, Malaysian</t>
+  </si>
+  <si>
+    <t>Sawnwood, Cameroon</t>
+  </si>
+  <si>
+    <t>Sawnwood, Malaysian</t>
+  </si>
+  <si>
+    <t>Cotton, A Index</t>
+  </si>
+  <si>
+    <t>Rubber, SGP/MYS</t>
+  </si>
+  <si>
+    <t>Iron ore, cfr spot</t>
+  </si>
+  <si>
+    <t>Fats &amp; oils</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>LNG, Japan</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Shrimps</t>
   </si>
 </sst>
 </file>
@@ -312,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -323,9 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,7 +417,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -671,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2198E43E-DB4C-4DD8-BF18-F2A8F19AB033}">
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:BG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -682,72 +789,108 @@
     <col min="1" max="1" width="4.109375" customWidth="1"/>
     <col min="2" max="2" width="26.5546875" customWidth="1"/>
     <col min="3" max="3" width="3.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="4" max="4" width="2.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" customWidth="1"/>
-    <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3">
-        <f>COUNTIF($G$3:$AI$100, A1)</f>
-        <v>2</v>
+        <f>COUNTIF($G$3:$CZ$100, A1)</f>
+        <v>1</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -755,53 +898,88 @@
         <v>57</v>
       </c>
       <c r="C2" s="3">
-        <f>COUNTIF($G$3:$AI$100, A2)</f>
-        <v>2</v>
-      </c>
-      <c r="E2" s="9" t="s">
+        <f t="shared" ref="C2:C60" si="0">COUNTIF($G$3:$CZ$100, A2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="8">
-        <v>3</v>
-      </c>
-      <c r="G2" s="8">
-        <v>3</v>
-      </c>
-      <c r="H2" s="8">
-        <v>3</v>
-      </c>
-      <c r="I2" s="8">
-        <v>3</v>
-      </c>
-      <c r="J2" s="8">
-        <v>3</v>
-      </c>
-      <c r="K2" s="8">
-        <v>3</v>
-      </c>
-      <c r="L2" s="8">
-        <v>3</v>
-      </c>
-      <c r="M2" s="8">
-        <v>3</v>
-      </c>
-      <c r="N2" s="8">
-        <v>3</v>
-      </c>
-      <c r="O2" s="8">
-        <v>3</v>
-      </c>
-      <c r="P2" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>3</v>
-      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -809,8 +987,8 @@
         <v>55</v>
       </c>
       <c r="C3" s="3">
-        <f>COUNTIF($G$3:$AI$100, A3)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>54</v>
@@ -822,37 +1000,73 @@
         <v>8</v>
       </c>
       <c r="H3" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I3" s="5">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J3" s="5">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K3" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="L3" s="5">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M3" s="5">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="N3" s="5">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="O3" s="5">
-        <v>43</v>
-      </c>
-      <c r="P3" s="5">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="5">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -860,8 +1074,8 @@
         <v>52</v>
       </c>
       <c r="C4" s="3">
-        <f>COUNTIF($G$3:$AI$100, A4)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -869,37 +1083,31 @@
         <v>9</v>
       </c>
       <c r="H4" s="5">
+        <v>13</v>
+      </c>
+      <c r="I4" s="5">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5">
+        <v>29</v>
+      </c>
+      <c r="K4" s="5">
         <v>2</v>
       </c>
-      <c r="I4" s="5">
-        <v>9</v>
-      </c>
-      <c r="J4" s="5">
-        <v>13</v>
-      </c>
-      <c r="K4" s="5">
-        <v>22</v>
-      </c>
       <c r="L4" s="5">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M4" s="5">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="N4" s="5">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="O4" s="5">
-        <v>45</v>
-      </c>
-      <c r="P4" s="5">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -907,8 +1115,8 @@
         <v>51</v>
       </c>
       <c r="C5" s="3">
-        <f>COUNTIF($G$3:$AI$100, A5)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -916,35 +1124,29 @@
         <v>10</v>
       </c>
       <c r="H5" s="5">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5">
+        <v>23</v>
+      </c>
+      <c r="J5" s="5">
+        <v>30</v>
+      </c>
+      <c r="K5" s="5">
         <v>3</v>
       </c>
-      <c r="I5" s="5">
-        <v>10</v>
-      </c>
-      <c r="J5" s="5">
-        <v>14</v>
-      </c>
-      <c r="K5" s="5">
-        <v>23</v>
-      </c>
       <c r="L5" s="5">
-        <v>29</v>
-      </c>
-      <c r="M5" s="5">
-        <v>3</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="M5" s="5"/>
       <c r="N5" s="5">
-        <v>37</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5">
         <v>50</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="O5" s="5">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -952,8 +1154,8 @@
         <v>50</v>
       </c>
       <c r="C6" s="3">
-        <f>COUNTIF($G$3:$AI$100, A6)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -961,33 +1163,27 @@
         <v>11</v>
       </c>
       <c r="H6" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I6" s="5">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J6" s="5">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="K6" s="5">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="L6" s="5">
-        <v>30</v>
-      </c>
-      <c r="M6" s="5">
-        <v>5</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="5">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>7</v>
       </c>
@@ -995,40 +1191,34 @@
         <v>49</v>
       </c>
       <c r="C7" s="3">
-        <f>COUNTIF($G$3:$AI$100, A7)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="5">
-        <v>12</v>
-      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="5">
-        <v>6</v>
-      </c>
-      <c r="I7" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="I7" s="5">
+        <v>26</v>
+      </c>
       <c r="J7" s="5">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="K7" s="5">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="L7" s="5">
-        <v>31</v>
-      </c>
-      <c r="M7" s="5">
-        <v>6</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="O7" s="5"/>
-      <c r="P7" s="5">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -1036,40 +1226,28 @@
         <v>48</v>
       </c>
       <c r="C8" s="3">
-        <f>COUNTIF($G$3:$AI$100, A8)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="5">
-        <v>13</v>
-      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5">
-        <v>17</v>
-      </c>
-      <c r="K8" s="5">
-        <v>25</v>
-      </c>
-      <c r="L8" s="5">
-        <v>32</v>
-      </c>
-      <c r="M8" s="5">
-        <v>4</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="5">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="O8" s="5"/>
-      <c r="P8" s="5">
-        <v>53</v>
-      </c>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -1077,34 +1255,22 @@
         <v>47</v>
       </c>
       <c r="C9" s="3">
-        <f>COUNTIF($G$3:$AI$100, A9)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="5">
-        <v>14</v>
-      </c>
-      <c r="H9" s="5">
-        <v>7</v>
-      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5">
-        <v>18</v>
-      </c>
+      <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="5">
-        <v>33</v>
-      </c>
-      <c r="M9" s="5">
-        <v>7</v>
-      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -1112,30 +1278,22 @@
         <v>46</v>
       </c>
       <c r="C10" s="3">
-        <f>COUNTIF($G$3:$AI$100, A10)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="5">
-        <v>15</v>
-      </c>
-      <c r="H10" s="5">
-        <v>35</v>
-      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="5">
-        <v>34</v>
-      </c>
+      <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="N10" s="2"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>11</v>
       </c>
@@ -1143,28 +1301,22 @@
         <v>45</v>
       </c>
       <c r="C11" s="3">
-        <f>COUNTIF($G$3:$AI$100, A11)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="5">
-        <v>16</v>
-      </c>
-      <c r="H11" s="5">
-        <v>36</v>
-      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>12</v>
       </c>
@@ -1172,17 +1324,13 @@
         <v>44</v>
       </c>
       <c r="C12" s="3">
-        <f>COUNTIF($G$3:$AI$100, A12)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="5">
-        <v>17</v>
-      </c>
-      <c r="H12" s="5">
-        <v>37</v>
-      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1190,10 +1338,8 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>13</v>
       </c>
@@ -1201,17 +1347,13 @@
         <v>43</v>
       </c>
       <c r="C13" s="3">
-        <f>COUNTIF($G$3:$AI$100, A13)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="5">
-        <v>18</v>
-      </c>
-      <c r="H13" s="5">
-        <v>38</v>
-      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1219,10 +1361,8 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>14</v>
       </c>
@@ -1230,17 +1370,13 @@
         <v>42</v>
       </c>
       <c r="C14" s="3">
-        <f>COUNTIF($G$3:$AI$100, A14)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="5">
-        <v>21</v>
-      </c>
-      <c r="H14" s="5">
-        <v>39</v>
-      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1248,10 +1384,8 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>15</v>
       </c>
@@ -1259,17 +1393,13 @@
         <v>41</v>
       </c>
       <c r="C15" s="3">
-        <f>COUNTIF($G$3:$AI$100, A15)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="5">
-        <v>22</v>
-      </c>
-      <c r="H15" s="5">
-        <v>40</v>
-      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1277,10 +1407,8 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>16</v>
       </c>
@@ -1288,17 +1416,13 @@
         <v>40</v>
       </c>
       <c r="C16" s="3">
-        <f>COUNTIF($G$3:$AI$100, A16)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="5">
-        <v>23</v>
-      </c>
-      <c r="H16" s="5">
-        <v>43</v>
-      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1306,10 +1430,8 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -1317,17 +1439,13 @@
         <v>39</v>
       </c>
       <c r="C17" s="3">
-        <f>COUNTIF($G$3:$AI$100, A17)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="5">
-        <v>24</v>
-      </c>
-      <c r="H17" s="5">
-        <v>45</v>
-      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1335,10 +1453,8 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>18</v>
       </c>
@@ -1346,17 +1462,13 @@
         <v>38</v>
       </c>
       <c r="C18" s="3">
-        <f>COUNTIF($G$3:$AI$100, A18)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="5">
-        <v>26</v>
-      </c>
-      <c r="H18" s="5">
-        <v>47</v>
-      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1364,10 +1476,8 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>19</v>
       </c>
@@ -1375,17 +1485,13 @@
         <v>37</v>
       </c>
       <c r="C19" s="3">
-        <f>COUNTIF($G$3:$AI$100, A19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="5">
-        <v>25</v>
-      </c>
-      <c r="H19" s="5">
-        <v>49</v>
-      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1393,10 +1499,8 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -1404,17 +1508,13 @@
         <v>36</v>
       </c>
       <c r="C20" s="3">
-        <f>COUNTIF($G$3:$AI$100, A20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="5">
-        <v>27</v>
-      </c>
-      <c r="H20" s="5">
-        <v>50</v>
-      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1422,10 +1522,8 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>21</v>
       </c>
@@ -1433,17 +1531,13 @@
         <v>35</v>
       </c>
       <c r="C21" s="3">
-        <f>COUNTIF($G$3:$AI$100, A21)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="5">
-        <v>28</v>
-      </c>
-      <c r="H21" s="5">
-        <v>51</v>
-      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1451,10 +1545,8 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>22</v>
       </c>
@@ -1462,17 +1554,13 @@
         <v>34</v>
       </c>
       <c r="C22" s="3">
-        <f>COUNTIF($G$3:$AI$100, A22)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="5">
-        <v>29</v>
-      </c>
-      <c r="H22" s="5">
-        <v>52</v>
-      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1480,10 +1568,8 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>23</v>
       </c>
@@ -1491,17 +1577,13 @@
         <v>33</v>
       </c>
       <c r="C23" s="3">
-        <f>COUNTIF($G$3:$AI$100, A23)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="5">
-        <v>30</v>
-      </c>
-      <c r="H23" s="5">
-        <v>53</v>
-      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1509,10 +1591,8 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>24</v>
       </c>
@@ -1520,17 +1600,13 @@
         <v>32</v>
       </c>
       <c r="C24" s="3">
-        <f>COUNTIF($G$3:$AI$100, A24)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="5">
-        <v>31</v>
-      </c>
-      <c r="H24" s="5">
-        <v>54</v>
-      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1538,10 +1614,8 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>25</v>
       </c>
@@ -1549,17 +1623,13 @@
         <v>31</v>
       </c>
       <c r="C25" s="3">
-        <f>COUNTIF($G$3:$AI$100, A25)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="5">
-        <v>32</v>
-      </c>
-      <c r="H25" s="5">
-        <v>55</v>
-      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1567,10 +1637,8 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>26</v>
       </c>
@@ -1578,17 +1646,13 @@
         <v>30</v>
       </c>
       <c r="C26" s="3">
-        <f>COUNTIF($G$3:$AI$100, A26)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="5">
-        <v>33</v>
-      </c>
-      <c r="H26" s="5">
-        <v>56</v>
-      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1596,10 +1660,8 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>27</v>
       </c>
@@ -1607,14 +1669,13 @@
         <v>29</v>
       </c>
       <c r="C27" s="3">
-        <f>COUNTIF($G$3:$AI$100, A27)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="5">
-        <v>34</v>
-      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1622,10 +1683,8 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>28</v>
       </c>
@@ -1633,13 +1692,13 @@
         <v>28</v>
       </c>
       <c r="C28" s="3">
-        <f>COUNTIF($G$3:$AI$100, A28)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="5"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1647,10 +1706,8 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>29</v>
       </c>
@@ -1658,8 +1715,8 @@
         <v>27</v>
       </c>
       <c r="C29" s="3">
-        <f>COUNTIF($G$3:$AI$100, A29)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1672,10 +1729,8 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>30</v>
       </c>
@@ -1683,8 +1738,8 @@
         <v>26</v>
       </c>
       <c r="C30" s="3">
-        <f>COUNTIF($G$3:$AI$100, A30)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1697,10 +1752,8 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>31</v>
       </c>
@@ -1708,8 +1761,8 @@
         <v>25</v>
       </c>
       <c r="C31" s="3">
-        <f>COUNTIF($G$3:$AI$100, A31)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1722,10 +1775,8 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>32</v>
       </c>
@@ -1733,8 +1784,8 @@
         <v>24</v>
       </c>
       <c r="C32" s="3">
-        <f>COUNTIF($G$3:$AI$100, A32)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1747,10 +1798,8 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>33</v>
       </c>
@@ -1758,8 +1807,8 @@
         <v>23</v>
       </c>
       <c r="C33" s="3">
-        <f>COUNTIF($G$3:$AI$100, A33)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1772,10 +1821,8 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>34</v>
       </c>
@@ -1783,8 +1830,8 @@
         <v>22</v>
       </c>
       <c r="C34" s="3">
-        <f>COUNTIF($G$3:$AI$100, A34)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1797,10 +1844,8 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>35</v>
       </c>
@@ -1808,8 +1853,8 @@
         <v>21</v>
       </c>
       <c r="C35" s="3">
-        <f>COUNTIF($G$3:$AI$100, A35)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1822,10 +1867,8 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -1833,8 +1876,8 @@
         <v>20</v>
       </c>
       <c r="C36" s="3">
-        <f>COUNTIF($G$3:$AI$100, A36)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1847,10 +1890,8 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -1858,8 +1899,8 @@
         <v>19</v>
       </c>
       <c r="C37" s="3">
-        <f>COUNTIF($G$3:$AI$100, A37)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1872,10 +1913,8 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>38</v>
       </c>
@@ -1883,8 +1922,8 @@
         <v>18</v>
       </c>
       <c r="C38" s="3">
-        <f>COUNTIF($G$3:$AI$100, A38)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1897,10 +1936,8 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -1908,8 +1945,8 @@
         <v>17</v>
       </c>
       <c r="C39" s="3">
-        <f>COUNTIF($G$3:$AI$100, A39)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1922,10 +1959,8 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -1933,8 +1968,8 @@
         <v>16</v>
       </c>
       <c r="C40" s="3">
-        <f>COUNTIF($G$3:$AI$100, A40)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1947,10 +1982,8 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>41</v>
       </c>
@@ -1958,7 +1991,7 @@
         <v>15</v>
       </c>
       <c r="C41" s="3">
-        <f>COUNTIF($G$3:$AI$100, A41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41" s="2"/>
@@ -1972,10 +2005,8 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>42</v>
       </c>
@@ -1983,7 +2014,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="3">
-        <f>COUNTIF($G$3:$AI$100, A42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42" s="2"/>
@@ -1997,10 +2028,8 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43</v>
       </c>
@@ -2008,8 +2037,8 @@
         <v>13</v>
       </c>
       <c r="C43" s="3">
-        <f>COUNTIF($G$3:$AI$100, A43)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2022,10 +2051,8 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>44</v>
       </c>
@@ -2033,7 +2060,7 @@
         <v>12</v>
       </c>
       <c r="C44" s="3">
-        <f>COUNTIF($G$3:$AI$100, A44)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44" s="2"/>
@@ -2047,10 +2074,8 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45</v>
       </c>
@@ -2058,8 +2083,8 @@
         <v>11</v>
       </c>
       <c r="C45" s="3">
-        <f>COUNTIF($G$3:$AI$100, A45)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2072,10 +2097,8 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>46</v>
       </c>
@@ -2083,7 +2106,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="3">
-        <f>COUNTIF($G$3:$AI$100, A46)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46" s="2"/>
@@ -2097,10 +2120,8 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>47</v>
       </c>
@@ -2108,8 +2129,8 @@
         <v>9</v>
       </c>
       <c r="C47" s="3">
-        <f>COUNTIF($G$3:$AI$100, A47)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -2122,10 +2143,8 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>48</v>
       </c>
@@ -2133,7 +2152,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="3">
-        <f>COUNTIF($G$3:$AI$100, A48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E48" s="2"/>
@@ -2147,10 +2166,8 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>49</v>
       </c>
@@ -2158,8 +2175,8 @@
         <v>7</v>
       </c>
       <c r="C49" s="3">
-        <f>COUNTIF($G$3:$AI$100, A49)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2172,10 +2189,8 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>50</v>
       </c>
@@ -2183,8 +2198,8 @@
         <v>6</v>
       </c>
       <c r="C50" s="3">
-        <f>COUNTIF($G$3:$AI$100, A50)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -2197,10 +2212,8 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>51</v>
       </c>
@@ -2208,8 +2221,8 @@
         <v>5</v>
       </c>
       <c r="C51" s="3">
-        <f>COUNTIF($G$3:$AI$100, A51)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -2222,10 +2235,8 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>52</v>
       </c>
@@ -2233,8 +2244,8 @@
         <v>4</v>
       </c>
       <c r="C52" s="3">
-        <f>COUNTIF($G$3:$AI$100, A52)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -2247,10 +2258,8 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>53</v>
       </c>
@@ -2258,8 +2267,8 @@
         <v>3</v>
       </c>
       <c r="C53" s="3">
-        <f>COUNTIF($G$3:$AI$100, A53)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -2272,10 +2281,8 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>54</v>
       </c>
@@ -2283,8 +2290,8 @@
         <v>2</v>
       </c>
       <c r="C54" s="3">
-        <f>COUNTIF($G$3:$AI$100, A54)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -2297,10 +2304,8 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>55</v>
       </c>
@@ -2308,8 +2313,8 @@
         <v>1</v>
       </c>
       <c r="C55" s="3">
-        <f>COUNTIF($G$3:$AI$100, A55)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -2322,10 +2327,8 @@
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>56</v>
       </c>
@@ -2333,8 +2336,8 @@
         <v>0</v>
       </c>
       <c r="C56" s="3">
-        <f>COUNTIF($G$3:$AI$100, A56)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -2347,16 +2350,14 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>57</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="3">
-        <f>COUNTIF($G$3:$AI$100, A57)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E57" s="2"/>
@@ -2370,16 +2371,14 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>58</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="3">
-        <f>COUNTIF($G$3:$AI$100, A58)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E58" s="2"/>
@@ -2393,16 +2392,14 @@
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>59</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="3">
-        <f>COUNTIF($G$3:$AI$100, A59)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E59" s="2"/>
@@ -2416,35 +2413,29 @@
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>60</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="3">
-        <f>COUNTIF($G$3:$AI$100, A60)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
       <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C60">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$C1=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2466,6 +2457,3404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC3A769-FC50-411A-B441-B772087222F3}">
+  <dimension ref="A1:BG60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3">
+        <f>COUNTIF($G$3:$CZ$100, A1)</f>
+        <v>1</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C60" si="0">COUNTIF($G$3:$CZ$100, A2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="5">
+        <v>24</v>
+      </c>
+      <c r="H3" s="5">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5">
+        <v>34</v>
+      </c>
+      <c r="L3" s="5">
+        <v>19</v>
+      </c>
+      <c r="M3" s="5">
+        <v>36</v>
+      </c>
+      <c r="N3" s="5">
+        <v>42</v>
+      </c>
+      <c r="O3" s="5">
+        <v>29</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5">
+        <v>25</v>
+      </c>
+      <c r="H4" s="5">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>12</v>
+      </c>
+      <c r="K4" s="5">
+        <v>35</v>
+      </c>
+      <c r="L4" s="5">
+        <v>20</v>
+      </c>
+      <c r="M4" s="5">
+        <v>37</v>
+      </c>
+      <c r="N4" s="5">
+        <v>43</v>
+      </c>
+      <c r="O4" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="5">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5">
+        <v>13</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5">
+        <v>21</v>
+      </c>
+      <c r="M5" s="5">
+        <v>38</v>
+      </c>
+      <c r="N5" s="5">
+        <v>44</v>
+      </c>
+      <c r="O5" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="5">
+        <v>27</v>
+      </c>
+      <c r="H6" s="5">
+        <v>10</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5">
+        <v>14</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
+        <v>22</v>
+      </c>
+      <c r="M6" s="5">
+        <v>39</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="5">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5">
+        <v>5</v>
+      </c>
+      <c r="J7" s="5">
+        <v>15</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
+        <v>23</v>
+      </c>
+      <c r="M7" s="5">
+        <v>40</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
+        <v>6</v>
+      </c>
+      <c r="J8" s="5">
+        <v>16</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5">
+        <v>41</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5">
+        <v>17</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5">
+        <v>18</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:C60">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$C1=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCB5397-2CC3-4919-9037-26B7F5EDE027}">
+  <dimension ref="A1:BE71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="3">
+        <f>COUNTIF($G$3:$CX$100, A1)</f>
+        <v>1</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="3">
+        <f>COUNTIF($G$3:$CX$100, A2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1</v>
+      </c>
+      <c r="P2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3">
+        <f>COUNTIF($G$3:$CX$100, A3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5">
+        <v>22</v>
+      </c>
+      <c r="K3" s="5">
+        <v>31</v>
+      </c>
+      <c r="L3" s="5">
+        <v>28</v>
+      </c>
+      <c r="M3" s="5">
+        <v>38</v>
+      </c>
+      <c r="N3" s="5">
+        <v>47</v>
+      </c>
+      <c r="O3" s="5">
+        <v>52</v>
+      </c>
+      <c r="P3" s="5">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+    </row>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3">
+        <f>COUNTIF($G$3:$CX$100, A4)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5">
+        <v>14</v>
+      </c>
+      <c r="J4" s="5">
+        <v>23</v>
+      </c>
+      <c r="K4" s="5">
+        <v>32</v>
+      </c>
+      <c r="L4" s="5">
+        <v>29</v>
+      </c>
+      <c r="M4" s="5">
+        <v>39</v>
+      </c>
+      <c r="N4" s="5">
+        <v>48</v>
+      </c>
+      <c r="O4" s="5">
+        <v>53</v>
+      </c>
+      <c r="P4" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3">
+        <f>COUNTIF($G$3:$CX$100, A5)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5">
+        <v>15</v>
+      </c>
+      <c r="J5" s="5">
+        <v>24</v>
+      </c>
+      <c r="K5" s="5">
+        <v>33</v>
+      </c>
+      <c r="L5" s="5">
+        <v>30</v>
+      </c>
+      <c r="M5" s="5">
+        <v>40</v>
+      </c>
+      <c r="N5" s="5">
+        <v>49</v>
+      </c>
+      <c r="O5" s="5">
+        <v>54</v>
+      </c>
+      <c r="P5" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3">
+        <f>COUNTIF($G$3:$CX$100, A6)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="5">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5">
+        <v>10</v>
+      </c>
+      <c r="I6" s="5">
+        <v>16</v>
+      </c>
+      <c r="J6" s="5">
+        <v>25</v>
+      </c>
+      <c r="K6" s="5">
+        <v>34</v>
+      </c>
+      <c r="L6" s="5">
+        <v>36</v>
+      </c>
+      <c r="M6" s="5">
+        <v>41</v>
+      </c>
+      <c r="N6" s="5">
+        <v>50</v>
+      </c>
+      <c r="O6" s="5">
+        <v>55</v>
+      </c>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3">
+        <f>COUNTIF($G$3:$CX$100, A7)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="5">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>11</v>
+      </c>
+      <c r="I7" s="5">
+        <v>17</v>
+      </c>
+      <c r="J7" s="5">
+        <v>26</v>
+      </c>
+      <c r="K7" s="5">
+        <v>35</v>
+      </c>
+      <c r="L7" s="5">
+        <v>37</v>
+      </c>
+      <c r="M7" s="5">
+        <v>42</v>
+      </c>
+      <c r="N7" s="5">
+        <v>51</v>
+      </c>
+      <c r="O7" s="5">
+        <v>56</v>
+      </c>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3">
+        <f>COUNTIF($G$3:$CX$100, A8)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="5">
+        <v>6</v>
+      </c>
+      <c r="H8" s="5">
+        <v>12</v>
+      </c>
+      <c r="I8" s="5">
+        <v>18</v>
+      </c>
+      <c r="J8" s="5">
+        <v>27</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5">
+        <v>43</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5">
+        <v>57</v>
+      </c>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3">
+        <f>COUNTIF($G$3:$CX$100, A9)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5">
+        <v>19</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
+        <v>44</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5">
+        <v>58</v>
+      </c>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3">
+        <f>COUNTIF($G$3:$CX$100, A10)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5">
+        <v>20</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5">
+        <v>45</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3">
+        <f>COUNTIF($G$3:$CX$100, A11)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="5">
+        <v>21</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5">
+        <v>46</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="3">
+        <f>COUNTIF($G$3:$CX$100, A12)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3">
+        <f>COUNTIF($G$3:$CX$100, A13)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3">
+        <f>COUNTIF($G$3:$CX$100, A14)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3">
+        <f>COUNTIF($G$3:$CX$100, A15)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3">
+        <f>COUNTIF($G$3:$CX$100, A16)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3">
+        <f>COUNTIF($G$3:$CX$100, A17)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="3">
+        <f>COUNTIF($G$3:$CX$100, A18)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3">
+        <f>COUNTIF($G$3:$CX$100, A19)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="3">
+        <f>COUNTIF($G$3:$CX$100, A20)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="3">
+        <f>COUNTIF($G$3:$CX$100, A21)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3">
+        <f>COUNTIF($G$3:$CX$100, A22)</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3">
+        <f>COUNTIF($G$3:$CX$100, A23)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3">
+        <f>COUNTIF($G$3:$CX$100, A24)</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="3">
+        <f>COUNTIF($G$3:$CX$100, A25)</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="3">
+        <f>COUNTIF($G$3:$CX$100, A26)</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="3">
+        <f>COUNTIF($G$3:$CX$100, A27)</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="3">
+        <f>COUNTIF($G$3:$CX$100, A28)</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="3">
+        <f>COUNTIF($G$3:$CX$100, A29)</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="3">
+        <f>COUNTIF($G$3:$CX$100, A30)</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="3">
+        <f>COUNTIF($G$3:$CX$100, A31)</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="3">
+        <f>COUNTIF($G$3:$CX$100, A32)</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="3">
+        <f>COUNTIF($G$3:$CX$100, A33)</f>
+        <v>1</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="3">
+        <f>COUNTIF($G$3:$CX$100, A34)</f>
+        <v>1</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="3">
+        <f>COUNTIF($G$3:$CX$100, A35)</f>
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="3">
+        <f>COUNTIF($G$3:$CX$100, A36)</f>
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="3">
+        <f>COUNTIF($G$3:$CX$100, A37)</f>
+        <v>1</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="3">
+        <f>COUNTIF($G$3:$CX$100, A38)</f>
+        <v>1</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="3">
+        <f>COUNTIF($G$3:$CX$100, A39)</f>
+        <v>1</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="3">
+        <f>COUNTIF($G$3:$CX$100, A40)</f>
+        <v>1</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="3">
+        <f>COUNTIF($G$3:$CX$100, A41)</f>
+        <v>1</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="3">
+        <f>COUNTIF($G$3:$CX$100, A42)</f>
+        <v>1</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="3">
+        <f>COUNTIF($G$3:$CX$100, A43)</f>
+        <v>1</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="3">
+        <f>COUNTIF($G$3:$CX$100, A44)</f>
+        <v>1</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="3">
+        <f>COUNTIF($G$3:$CX$100, A45)</f>
+        <v>1</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="3">
+        <f>COUNTIF($G$3:$CX$100, A46)</f>
+        <v>1</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="3">
+        <f>COUNTIF($G$3:$CX$100, A47)</f>
+        <v>1</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="3">
+        <f>COUNTIF($G$3:$CX$100, A48)</f>
+        <v>1</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="3">
+        <f>COUNTIF($G$3:$CX$100, A49)</f>
+        <v>1</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="3">
+        <f>COUNTIF($G$3:$CX$100, A50)</f>
+        <v>1</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="3">
+        <f>COUNTIF($G$3:$CX$100, A51)</f>
+        <v>1</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3">
+        <f>COUNTIF($G$3:$CX$100, A52)</f>
+        <v>1</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="3">
+        <f>COUNTIF($G$3:$CX$100, A53)</f>
+        <v>1</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="3">
+        <f>COUNTIF($G$3:$CX$100, A54)</f>
+        <v>1</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3">
+        <f>COUNTIF($G$3:$CX$100, A55)</f>
+        <v>1</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3">
+        <f>COUNTIF($G$3:$CX$100, A56)</f>
+        <v>1</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="3">
+        <f>COUNTIF($G$3:$CX$100, A57)</f>
+        <v>1</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="3">
+        <f>COUNTIF($G$3:$CX$100, A58)</f>
+        <v>1</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3">
+        <f>COUNTIF($G$3:$CX$100, A59)</f>
+        <v>1</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3">
+        <f>COUNTIF($G$3:$CX$100, A60)</f>
+        <v>1</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="3">
+        <f>COUNTIF($G$3:$CX$100, A61)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="3">
+        <f>COUNTIF($G$3:$CX$100, A62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3">
+        <f>COUNTIF($G$3:$CX$100, A63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="3">
+        <f>COUNTIF($G$3:$CX$100, A64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="3">
+        <f>COUNTIF($G$3:$CX$100, A65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>66</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="3">
+        <f>COUNTIF($G$3:$CX$100, A66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="3">
+        <f>COUNTIF($G$3:$CX$100, A67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="3">
+        <f>COUNTIF($G$3:$CX$100, A68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="3">
+        <f>COUNTIF($G$3:$CX$100, A69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="3">
+        <f>COUNTIF($G$3:$CX$100, A70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="3">
+        <f>COUNTIF($G$3:$CX$100, A71)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:C60 A61:A71 C61:C71">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C1=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:B71">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C61=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F95B41-F6D4-4A9B-8E8E-735FA3EB2988}">
   <dimension ref="A1:T60"/>
   <sheetViews>
@@ -2483,41 +5872,41 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3">
-        <f>COUNTIF($G$3:$AG$100, A1)</f>
+        <f t="shared" ref="C1:C32" si="0">COUNTIF($G$3:$AG$100, A1)</f>
         <v>1</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>63</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2529,40 +5918,40 @@
         <v>57</v>
       </c>
       <c r="C2" s="3">
-        <f>COUNTIF($G$3:$AG$100, A2)</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="8">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8">
-        <v>1</v>
-      </c>
-      <c r="J2" s="8">
-        <v>1</v>
-      </c>
-      <c r="K2" s="8">
-        <v>1</v>
-      </c>
-      <c r="L2" s="8">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8">
-        <v>1</v>
-      </c>
-      <c r="N2" s="8">
-        <v>1</v>
-      </c>
-      <c r="O2" s="8">
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7">
         <v>1</v>
       </c>
       <c r="R2" s="5">
@@ -2583,7 +5972,7 @@
         <v>55</v>
       </c>
       <c r="C3" s="3">
-        <f>COUNTIF($G$3:$AG$100, A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -2637,7 +6026,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="3">
-        <f>COUNTIF($G$3:$AG$100, A4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4" s="2"/>
@@ -2687,7 +6076,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="3">
-        <f>COUNTIF($G$3:$AG$100, A5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5" s="2"/>
@@ -2726,7 +6115,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="3">
-        <f>COUNTIF($G$3:$AG$100, A6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E6" s="2"/>
@@ -2763,7 +6152,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="3">
-        <f>COUNTIF($G$3:$AG$100, A7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
@@ -2798,7 +6187,7 @@
         <v>48</v>
       </c>
       <c r="C8" s="3">
-        <f>COUNTIF($G$3:$AG$100, A8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8" s="2"/>
@@ -2831,7 +6220,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="3">
-        <f>COUNTIF($G$3:$AG$100, A9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9" s="2"/>
@@ -2860,7 +6249,7 @@
         <v>46</v>
       </c>
       <c r="C10" s="3">
-        <f>COUNTIF($G$3:$AG$100, A10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E10" s="2"/>
@@ -2888,7 +6277,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="3">
-        <f>COUNTIF($G$3:$AG$100, A11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11" s="2"/>
@@ -2914,7 +6303,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="3">
-        <f>COUNTIF($G$3:$AG$100, A12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12" s="2"/>
@@ -2940,7 +6329,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="3">
-        <f>COUNTIF($G$3:$AG$100, A13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13" s="2"/>
@@ -2966,7 +6355,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="3">
-        <f>COUNTIF($G$3:$AG$100, A14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14" s="2"/>
@@ -2992,7 +6381,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="3">
-        <f>COUNTIF($G$3:$AG$100, A15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E15" s="2"/>
@@ -3018,7 +6407,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="3">
-        <f>COUNTIF($G$3:$AG$100, A16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E16" s="2"/>
@@ -3044,7 +6433,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="3">
-        <f>COUNTIF($G$3:$AG$100, A17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E17" s="2"/>
@@ -3070,7 +6459,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="3">
-        <f>COUNTIF($G$3:$AG$100, A18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E18" s="2"/>
@@ -3096,7 +6485,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="3">
-        <f>COUNTIF($G$3:$AG$100, A19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="2"/>
@@ -3122,7 +6511,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="3">
-        <f>COUNTIF($G$3:$AG$100, A20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="2"/>
@@ -3148,7 +6537,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="3">
-        <f>COUNTIF($G$3:$AG$100, A21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21" s="2"/>
@@ -3174,7 +6563,7 @@
         <v>34</v>
       </c>
       <c r="C22" s="3">
-        <f>COUNTIF($G$3:$AG$100, A22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E22" s="2"/>
@@ -3200,7 +6589,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="3">
-        <f>COUNTIF($G$3:$AG$100, A23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E23" s="2"/>
@@ -3226,7 +6615,7 @@
         <v>32</v>
       </c>
       <c r="C24" s="3">
-        <f>COUNTIF($G$3:$AG$100, A24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E24" s="2"/>
@@ -3252,7 +6641,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="3">
-        <f>COUNTIF($G$3:$AG$100, A25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E25" s="2"/>
@@ -3278,7 +6667,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="3">
-        <f>COUNTIF($G$3:$AG$100, A26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E26" s="2"/>
@@ -3304,7 +6693,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="3">
-        <f>COUNTIF($G$3:$AG$100, A27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E27" s="2"/>
@@ -3330,7 +6719,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="3">
-        <f>COUNTIF($G$3:$AG$100, A28)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E28" s="2"/>
@@ -3356,7 +6745,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3">
-        <f>COUNTIF($G$3:$AG$100, A29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E29" s="2"/>
@@ -3382,7 +6771,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="3">
-        <f>COUNTIF($G$3:$AG$100, A30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E30" s="2"/>
@@ -3408,7 +6797,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="3">
-        <f>COUNTIF($G$3:$AG$100, A31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E31" s="2"/>
@@ -3434,7 +6823,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="3">
-        <f>COUNTIF($G$3:$AG$100, A32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E32" s="2"/>
@@ -3460,7 +6849,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="3">
-        <f>COUNTIF($G$3:$AG$100, A33)</f>
+        <f t="shared" ref="C33:C60" si="1">COUNTIF($G$3:$AG$100, A33)</f>
         <v>1</v>
       </c>
       <c r="E33" s="2"/>
@@ -3486,7 +6875,7 @@
         <v>22</v>
       </c>
       <c r="C34" s="3">
-        <f>COUNTIF($G$3:$AG$100, A34)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E34" s="2"/>
@@ -3509,7 +6898,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="3">
-        <f>COUNTIF($G$3:$AG$100, A35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E35" s="2"/>
@@ -3532,7 +6921,7 @@
         <v>20</v>
       </c>
       <c r="C36" s="3">
-        <f>COUNTIF($G$3:$AG$100, A36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E36" s="2"/>
@@ -3555,7 +6944,7 @@
         <v>19</v>
       </c>
       <c r="C37" s="3">
-        <f>COUNTIF($G$3:$AG$100, A37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E37" s="2"/>
@@ -3578,7 +6967,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="3">
-        <f>COUNTIF($G$3:$AG$100, A38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E38" s="2"/>
@@ -3601,7 +6990,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="3">
-        <f>COUNTIF($G$3:$AG$100, A39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E39" s="2"/>
@@ -3624,7 +7013,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="3">
-        <f>COUNTIF($G$3:$AG$100, A40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E40" s="2"/>
@@ -3647,7 +7036,7 @@
         <v>15</v>
       </c>
       <c r="C41" s="3">
-        <f>COUNTIF($G$3:$AG$100, A41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E41" s="2"/>
@@ -3670,7 +7059,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="3">
-        <f>COUNTIF($G$3:$AG$100, A42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E42" s="2"/>
@@ -3693,7 +7082,7 @@
         <v>13</v>
       </c>
       <c r="C43" s="3">
-        <f>COUNTIF($G$3:$AG$100, A43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E43" s="2"/>
@@ -3716,7 +7105,7 @@
         <v>12</v>
       </c>
       <c r="C44" s="3">
-        <f>COUNTIF($G$3:$AG$100, A44)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E44" s="2"/>
@@ -3739,7 +7128,7 @@
         <v>11</v>
       </c>
       <c r="C45" s="3">
-        <f>COUNTIF($G$3:$AG$100, A45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E45" s="2"/>
@@ -3762,7 +7151,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="3">
-        <f>COUNTIF($G$3:$AG$100, A46)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E46" s="2"/>
@@ -3785,7 +7174,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="3">
-        <f>COUNTIF($G$3:$AG$100, A47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E47" s="2"/>
@@ -3808,7 +7197,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="3">
-        <f>COUNTIF($G$3:$AG$100, A48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E48" s="2"/>
@@ -3831,7 +7220,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="3">
-        <f>COUNTIF($G$3:$AG$100, A49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E49" s="2"/>
@@ -3854,7 +7243,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="3">
-        <f>COUNTIF($G$3:$AG$100, A50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E50" s="2"/>
@@ -3877,7 +7266,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="3">
-        <f>COUNTIF($G$3:$AG$100, A51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E51" s="2"/>
@@ -3900,7 +7289,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="3">
-        <f>COUNTIF($G$3:$AG$100, A52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E52" s="2"/>
@@ -3923,7 +7312,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="3">
-        <f>COUNTIF($G$3:$AG$100, A53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E53" s="2"/>
@@ -3946,7 +7335,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="3">
-        <f>COUNTIF($G$3:$AG$100, A54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E54" s="2"/>
@@ -3969,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="3">
-        <f>COUNTIF($G$3:$AG$100, A55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E55" s="2"/>
@@ -3992,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="3">
-        <f>COUNTIF($G$3:$AG$100, A56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E56" s="2"/>
@@ -4013,7 +7402,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="3">
-        <f>COUNTIF($G$3:$AG$100, A57)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E57" s="2"/>
@@ -4034,7 +7423,7 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="3">
-        <f>COUNTIF($G$3:$AG$100, A58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E58" s="2"/>
@@ -4055,7 +7444,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="3">
-        <f>COUNTIF($G$3:$AG$100, A59)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E59" s="2"/>
@@ -4076,7 +7465,7 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="3">
-        <f>COUNTIF($G$3:$AG$100, A60)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E60" s="2"/>
